--- a/scripts/capthue.xlsx
+++ b/scripts/capthue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev Apps\home_n8n\scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DEV\home_n8n\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EA171E-53CA-475E-9032-075C1A34B9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D926D81E-D28E-4476-B69C-012C26CE84AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NearestRoutes_DualPoint" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NearestRoutes_DualPoint!$A$1:$O$1047</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8675,7 +8686,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -8704,7 +8715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -9008,23 +9019,23 @@
   <dimension ref="A1:O1047"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G163" sqref="G163"/>
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.796875" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
     <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.69921875" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
